--- a/files/Final_Report.xlsx
+++ b/files/Final_Report.xlsx
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="K7">
-        <f>TODAY()-C7</f>
+        <f>DATEDIF(C7, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="K7">
-        <f>TODAY()-C7</f>
+        <f>DATEDIF(C7, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="K8">
-        <f>TODAY()-C8</f>
+        <f>DATEDIF(C8, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="K9">
-        <f>TODAY()-C9</f>
+        <f>DATEDIF(C9, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="K10">
-        <f>TODAY()-C10</f>
+        <f>DATEDIF(C10, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="K11">
-        <f>TODAY()-C11</f>
+        <f>DATEDIF(C11, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="K12">
-        <f>TODAY()-C12</f>
+        <f>DATEDIF(C12, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="K13">
-        <f>TODAY()-C13</f>
+        <f>DATEDIF(C13, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="K14">
-        <f>TODAY()-C14</f>
+        <f>DATEDIF(C14, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="K15">
-        <f>TODAY()-C15</f>
+        <f>DATEDIF(C15, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="K16">
-        <f>TODAY()-C16</f>
+        <f>DATEDIF(C16, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="K17">
-        <f>TODAY()-C17</f>
+        <f>DATEDIF(C17, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="K18">
-        <f>TODAY()-C18</f>
+        <f>DATEDIF(C18, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="K19">
-        <f>TODAY()-C19</f>
+        <f>DATEDIF(C19, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="K20">
-        <f>TODAY()-C20</f>
+        <f>DATEDIF(C20, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="K21">
-        <f>TODAY()-C21</f>
+        <f>DATEDIF(C21, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="K22">
-        <f>TODAY()-C22</f>
+        <f>DATEDIF(C22, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="K23">
-        <f>TODAY()-C23</f>
+        <f>DATEDIF(C23, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="K24">
-        <f>TODAY()-C24</f>
+        <f>DATEDIF(C24, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="K25">
-        <f>TODAY()-C25</f>
+        <f>DATEDIF(C25, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="K26">
-        <f>TODAY()-C26</f>
+        <f>DATEDIF(C26, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="K27">
-        <f>TODAY()-C27</f>
+        <f>DATEDIF(C27, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="K28">
-        <f>TODAY()-C28</f>
+        <f>DATEDIF(C28, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="K29">
-        <f>TODAY()-C29</f>
+        <f>DATEDIF(C29, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="K30">
-        <f>TODAY()-C30</f>
+        <f>DATEDIF(C30, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="K31">
-        <f>TODAY()-C31</f>
+        <f>DATEDIF(C31, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="K32">
-        <f>TODAY()-C32</f>
+        <f>DATEDIF(C32, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="K33">
-        <f>TODAY()-C33</f>
+        <f>DATEDIF(C33, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
         </is>
       </c>
       <c r="K7">
-        <f>TODAY()-C7</f>
+        <f>DATEDIF(C7, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4070,7 +4070,7 @@
         </is>
       </c>
       <c r="K8">
-        <f>TODAY()-C8</f>
+        <f>DATEDIF(C8, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="K9">
-        <f>TODAY()-C9</f>
+        <f>DATEDIF(C9, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4323,7 +4323,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="K7">
-        <f>TODAY()-C7</f>
+        <f>DATEDIF(C7, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="K8">
-        <f>TODAY()-C8</f>
+        <f>DATEDIF(C8, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="K9">
-        <f>TODAY()-C9</f>
+        <f>DATEDIF(C9, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="K10">
-        <f>TODAY()-C10</f>
+        <f>DATEDIF(C10, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
         </is>
       </c>
       <c r="K11">
-        <f>TODAY()-C11</f>
+        <f>DATEDIF(C11, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="K12">
-        <f>TODAY()-C12</f>
+        <f>DATEDIF(C12, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
         </is>
       </c>
       <c r="K13">
-        <f>TODAY()-C13</f>
+        <f>DATEDIF(C13, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="K14">
-        <f>TODAY()-C14</f>
+        <f>DATEDIF(C14, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4898,7 +4898,7 @@
         </is>
       </c>
       <c r="K15">
-        <f>TODAY()-C15</f>
+        <f>DATEDIF(C15, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="K16">
-        <f>TODAY()-C16</f>
+        <f>DATEDIF(C16, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="K7">
-        <f>TODAY()-C7</f>
+        <f>DATEDIF(C7, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
         </is>
       </c>
       <c r="K8">
-        <f>TODAY()-C8</f>
+        <f>DATEDIF(C8, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="K9">
-        <f>TODAY()-C9</f>
+        <f>DATEDIF(C9, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="K10">
-        <f>TODAY()-C10</f>
+        <f>DATEDIF(C10, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="K11">
-        <f>TODAY()-C11</f>
+        <f>DATEDIF(C11, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -5904,7 +5904,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6560,7 +6560,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6610,7 +6610,7 @@
         </is>
       </c>
       <c r="K7">
-        <f>TODAY()-C7</f>
+        <f>DATEDIF(C7, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
         </is>
       </c>
       <c r="K8">
-        <f>TODAY()-C8</f>
+        <f>DATEDIF(C8, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="K9">
-        <f>TODAY()-C9</f>
+        <f>DATEDIF(C9, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="K10">
-        <f>TODAY()-C10</f>
+        <f>DATEDIF(C10, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6810,7 +6810,7 @@
         </is>
       </c>
       <c r="K11">
-        <f>TODAY()-C11</f>
+        <f>DATEDIF(C11, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="K12">
-        <f>TODAY()-C12</f>
+        <f>DATEDIF(C12, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
         </is>
       </c>
       <c r="K13">
-        <f>TODAY()-C13</f>
+        <f>DATEDIF(C13, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -6960,7 +6960,7 @@
         </is>
       </c>
       <c r="K14">
-        <f>TODAY()-C14</f>
+        <f>DATEDIF(C14, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7010,7 +7010,7 @@
         </is>
       </c>
       <c r="K15">
-        <f>TODAY()-C15</f>
+        <f>DATEDIF(C15, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="K16">
-        <f>TODAY()-C16</f>
+        <f>DATEDIF(C16, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
         </is>
       </c>
       <c r="K17">
-        <f>TODAY()-C17</f>
+        <f>DATEDIF(C17, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7160,7 +7160,7 @@
         </is>
       </c>
       <c r="K18">
-        <f>TODAY()-C18</f>
+        <f>DATEDIF(C18, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="K19">
-        <f>TODAY()-C19</f>
+        <f>DATEDIF(C19, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="K20">
-        <f>TODAY()-C20</f>
+        <f>DATEDIF(C20, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7310,7 +7310,7 @@
         </is>
       </c>
       <c r="K21">
-        <f>TODAY()-C21</f>
+        <f>DATEDIF(C21, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7360,7 +7360,7 @@
         </is>
       </c>
       <c r="K22">
-        <f>TODAY()-C22</f>
+        <f>DATEDIF(C22, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7410,7 +7410,7 @@
         </is>
       </c>
       <c r="K23">
-        <f>TODAY()-C23</f>
+        <f>DATEDIF(C23, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="K24">
-        <f>TODAY()-C24</f>
+        <f>DATEDIF(C24, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7510,7 +7510,7 @@
         </is>
       </c>
       <c r="K25">
-        <f>TODAY()-C25</f>
+        <f>DATEDIF(C25, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7560,7 +7560,7 @@
         </is>
       </c>
       <c r="K26">
-        <f>TODAY()-C26</f>
+        <f>DATEDIF(C26, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
         </is>
       </c>
       <c r="K27">
-        <f>TODAY()-C27</f>
+        <f>DATEDIF(C27, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="K28">
-        <f>TODAY()-C28</f>
+        <f>DATEDIF(C28, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7710,7 +7710,7 @@
         </is>
       </c>
       <c r="K29">
-        <f>TODAY()-C29</f>
+        <f>DATEDIF(C29, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7760,7 +7760,7 @@
         </is>
       </c>
       <c r="K30">
-        <f>TODAY()-C30</f>
+        <f>DATEDIF(C30, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7810,7 +7810,7 @@
         </is>
       </c>
       <c r="K31">
-        <f>TODAY()-C31</f>
+        <f>DATEDIF(C31, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7860,7 +7860,7 @@
         </is>
       </c>
       <c r="K32">
-        <f>TODAY()-C32</f>
+        <f>DATEDIF(C32, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
         </is>
       </c>
       <c r="K33">
-        <f>TODAY()-C33</f>
+        <f>DATEDIF(C33, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -7955,7 +7955,7 @@
         </is>
       </c>
       <c r="K34">
-        <f>TODAY()-C34</f>
+        <f>DATEDIF(C34, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8000,7 +8000,7 @@
         </is>
       </c>
       <c r="K35">
-        <f>TODAY()-C35</f>
+        <f>DATEDIF(C35, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8045,7 +8045,7 @@
         </is>
       </c>
       <c r="K36">
-        <f>TODAY()-C36</f>
+        <f>DATEDIF(C36, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8090,7 +8090,7 @@
         </is>
       </c>
       <c r="K37">
-        <f>TODAY()-C37</f>
+        <f>DATEDIF(C37, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8135,7 +8135,7 @@
         </is>
       </c>
       <c r="K38">
-        <f>TODAY()-C38</f>
+        <f>DATEDIF(C38, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8185,7 +8185,7 @@
         </is>
       </c>
       <c r="K39">
-        <f>TODAY()-C39</f>
+        <f>DATEDIF(C39, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
         </is>
       </c>
       <c r="K40">
-        <f>TODAY()-C40</f>
+        <f>DATEDIF(C40, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="K41">
-        <f>TODAY()-C41</f>
+        <f>DATEDIF(C41, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
         </is>
       </c>
       <c r="K42">
-        <f>TODAY()-C42</f>
+        <f>DATEDIF(C42, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8385,7 +8385,7 @@
         </is>
       </c>
       <c r="K43">
-        <f>TODAY()-C43</f>
+        <f>DATEDIF(C43, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8435,7 +8435,7 @@
         </is>
       </c>
       <c r="K44">
-        <f>TODAY()-C44</f>
+        <f>DATEDIF(C44, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
         </is>
       </c>
       <c r="K45">
-        <f>TODAY()-C45</f>
+        <f>DATEDIF(C45, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8535,7 +8535,7 @@
         </is>
       </c>
       <c r="K46">
-        <f>TODAY()-C46</f>
+        <f>DATEDIF(C46, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8585,7 +8585,7 @@
         </is>
       </c>
       <c r="K47">
-        <f>TODAY()-C47</f>
+        <f>DATEDIF(C47, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8635,7 +8635,7 @@
         </is>
       </c>
       <c r="K48">
-        <f>TODAY()-C48</f>
+        <f>DATEDIF(C48, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="K49">
-        <f>TODAY()-C49</f>
+        <f>DATEDIF(C49, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8735,7 +8735,7 @@
         </is>
       </c>
       <c r="K50">
-        <f>TODAY()-C50</f>
+        <f>DATEDIF(C50, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8785,7 +8785,7 @@
         </is>
       </c>
       <c r="K51">
-        <f>TODAY()-C51</f>
+        <f>DATEDIF(C51, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
         </is>
       </c>
       <c r="K52">
-        <f>TODAY()-C52</f>
+        <f>DATEDIF(C52, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
         </is>
       </c>
       <c r="K53">
-        <f>TODAY()-C53</f>
+        <f>DATEDIF(C53, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8935,7 +8935,7 @@
         </is>
       </c>
       <c r="K54">
-        <f>TODAY()-C54</f>
+        <f>DATEDIF(C54, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
         </is>
       </c>
       <c r="K55">
-        <f>TODAY()-C55</f>
+        <f>DATEDIF(C55, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9035,7 +9035,7 @@
         </is>
       </c>
       <c r="K56">
-        <f>TODAY()-C56</f>
+        <f>DATEDIF(C56, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9085,7 +9085,7 @@
         </is>
       </c>
       <c r="K57">
-        <f>TODAY()-C57</f>
+        <f>DATEDIF(C57, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9135,7 +9135,7 @@
         </is>
       </c>
       <c r="K58">
-        <f>TODAY()-C58</f>
+        <f>DATEDIF(C58, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9185,7 +9185,7 @@
         </is>
       </c>
       <c r="K59">
-        <f>TODAY()-C59</f>
+        <f>DATEDIF(C59, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="K60">
-        <f>TODAY()-C60</f>
+        <f>DATEDIF(C60, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="K61">
-        <f>TODAY()-C61</f>
+        <f>DATEDIF(C61, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9330,7 +9330,7 @@
         </is>
       </c>
       <c r="K62">
-        <f>TODAY()-C62</f>
+        <f>DATEDIF(C62, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9483,7 +9483,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9533,7 +9533,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9583,7 +9583,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9683,7 +9683,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9733,7 +9733,7 @@
         </is>
       </c>
       <c r="K7">
-        <f>TODAY()-C7</f>
+        <f>DATEDIF(C7, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9783,7 +9783,7 @@
         </is>
       </c>
       <c r="K8">
-        <f>TODAY()-C8</f>
+        <f>DATEDIF(C8, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -9936,7 +9936,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10089,7 +10089,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10139,7 +10139,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10239,7 +10239,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10289,7 +10289,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10339,7 +10339,7 @@
         </is>
       </c>
       <c r="K7">
-        <f>TODAY()-C7</f>
+        <f>DATEDIF(C7, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
         </is>
       </c>
       <c r="K8">
-        <f>TODAY()-C8</f>
+        <f>DATEDIF(C8, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10439,7 +10439,7 @@
         </is>
       </c>
       <c r="K9">
-        <f>TODAY()-C9</f>
+        <f>DATEDIF(C9, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10489,7 +10489,7 @@
         </is>
       </c>
       <c r="K10">
-        <f>TODAY()-C10</f>
+        <f>DATEDIF(C10, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10539,7 +10539,7 @@
         </is>
       </c>
       <c r="K11">
-        <f>TODAY()-C11</f>
+        <f>DATEDIF(C11, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10589,7 +10589,7 @@
         </is>
       </c>
       <c r="K12">
-        <f>TODAY()-C12</f>
+        <f>DATEDIF(C12, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10639,7 +10639,7 @@
         </is>
       </c>
       <c r="K13">
-        <f>TODAY()-C13</f>
+        <f>DATEDIF(C13, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
         </is>
       </c>
       <c r="K14">
-        <f>TODAY()-C14</f>
+        <f>DATEDIF(C14, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
         </is>
       </c>
       <c r="K15">
-        <f>TODAY()-C15</f>
+        <f>DATEDIF(C15, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
         </is>
       </c>
       <c r="K16">
-        <f>TODAY()-C16</f>
+        <f>DATEDIF(C16, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
         </is>
       </c>
       <c r="K17">
-        <f>TODAY()-C17</f>
+        <f>DATEDIF(C17, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10889,7 +10889,7 @@
         </is>
       </c>
       <c r="K18">
-        <f>TODAY()-C18</f>
+        <f>DATEDIF(C18, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10939,7 +10939,7 @@
         </is>
       </c>
       <c r="K19">
-        <f>TODAY()-C19</f>
+        <f>DATEDIF(C19, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="K20">
-        <f>TODAY()-C20</f>
+        <f>DATEDIF(C20, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11039,7 +11039,7 @@
         </is>
       </c>
       <c r="K21">
-        <f>TODAY()-C21</f>
+        <f>DATEDIF(C21, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="K22">
-        <f>TODAY()-C22</f>
+        <f>DATEDIF(C22, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11139,7 +11139,7 @@
         </is>
       </c>
       <c r="K23">
-        <f>TODAY()-C23</f>
+        <f>DATEDIF(C23, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11189,7 +11189,7 @@
         </is>
       </c>
       <c r="K24">
-        <f>TODAY()-C24</f>
+        <f>DATEDIF(C24, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11239,7 +11239,7 @@
         </is>
       </c>
       <c r="K25">
-        <f>TODAY()-C25</f>
+        <f>DATEDIF(C25, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11289,7 +11289,7 @@
         </is>
       </c>
       <c r="K26">
-        <f>TODAY()-C26</f>
+        <f>DATEDIF(C26, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
         </is>
       </c>
       <c r="K27">
-        <f>TODAY()-C27</f>
+        <f>DATEDIF(C27, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11389,7 +11389,7 @@
         </is>
       </c>
       <c r="K28">
-        <f>TODAY()-C28</f>
+        <f>DATEDIF(C28, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11439,7 +11439,7 @@
         </is>
       </c>
       <c r="K29">
-        <f>TODAY()-C29</f>
+        <f>DATEDIF(C29, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11489,7 +11489,7 @@
         </is>
       </c>
       <c r="K30">
-        <f>TODAY()-C30</f>
+        <f>DATEDIF(C30, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="K31">
-        <f>TODAY()-C31</f>
+        <f>DATEDIF(C31, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="K32">
-        <f>TODAY()-C32</f>
+        <f>DATEDIF(C32, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
         </is>
       </c>
       <c r="K33">
-        <f>TODAY()-C33</f>
+        <f>DATEDIF(C33, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="K34">
-        <f>TODAY()-C34</f>
+        <f>DATEDIF(C34, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11739,7 +11739,7 @@
         </is>
       </c>
       <c r="K35">
-        <f>TODAY()-C35</f>
+        <f>DATEDIF(C35, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
         </is>
       </c>
       <c r="K36">
-        <f>TODAY()-C36</f>
+        <f>DATEDIF(C36, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11839,7 +11839,7 @@
         </is>
       </c>
       <c r="K37">
-        <f>TODAY()-C37</f>
+        <f>DATEDIF(C37, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
         </is>
       </c>
       <c r="K38">
-        <f>TODAY()-C38</f>
+        <f>DATEDIF(C38, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11939,7 +11939,7 @@
         </is>
       </c>
       <c r="K39">
-        <f>TODAY()-C39</f>
+        <f>DATEDIF(C39, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -11989,7 +11989,7 @@
         </is>
       </c>
       <c r="K40">
-        <f>TODAY()-C40</f>
+        <f>DATEDIF(C40, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12039,7 +12039,7 @@
         </is>
       </c>
       <c r="K41">
-        <f>TODAY()-C41</f>
+        <f>DATEDIF(C41, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12089,7 +12089,7 @@
         </is>
       </c>
       <c r="K42">
-        <f>TODAY()-C42</f>
+        <f>DATEDIF(C42, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12139,7 +12139,7 @@
         </is>
       </c>
       <c r="K43">
-        <f>TODAY()-C43</f>
+        <f>DATEDIF(C43, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12189,7 +12189,7 @@
         </is>
       </c>
       <c r="K44">
-        <f>TODAY()-C44</f>
+        <f>DATEDIF(C44, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12239,7 +12239,7 @@
         </is>
       </c>
       <c r="K45">
-        <f>TODAY()-C45</f>
+        <f>DATEDIF(C45, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12289,7 +12289,7 @@
         </is>
       </c>
       <c r="K46">
-        <f>TODAY()-C46</f>
+        <f>DATEDIF(C46, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12339,7 +12339,7 @@
         </is>
       </c>
       <c r="K47">
-        <f>TODAY()-C47</f>
+        <f>DATEDIF(C47, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12389,7 +12389,7 @@
         </is>
       </c>
       <c r="K48">
-        <f>TODAY()-C48</f>
+        <f>DATEDIF(C48, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12439,7 +12439,7 @@
         </is>
       </c>
       <c r="K49">
-        <f>TODAY()-C49</f>
+        <f>DATEDIF(C49, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
         </is>
       </c>
       <c r="K50">
-        <f>TODAY()-C50</f>
+        <f>DATEDIF(C50, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="K51">
-        <f>TODAY()-C51</f>
+        <f>DATEDIF(C51, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
         </is>
       </c>
       <c r="K52">
-        <f>TODAY()-C52</f>
+        <f>DATEDIF(C52, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12639,7 +12639,7 @@
         </is>
       </c>
       <c r="K53">
-        <f>TODAY()-C53</f>
+        <f>DATEDIF(C53, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
         </is>
       </c>
       <c r="K54">
-        <f>TODAY()-C54</f>
+        <f>DATEDIF(C54, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12739,7 +12739,7 @@
         </is>
       </c>
       <c r="K55">
-        <f>TODAY()-C55</f>
+        <f>DATEDIF(C55, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="K56">
-        <f>TODAY()-C56</f>
+        <f>DATEDIF(C56, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12839,7 +12839,7 @@
         </is>
       </c>
       <c r="K57">
-        <f>TODAY()-C57</f>
+        <f>DATEDIF(C57, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12889,7 +12889,7 @@
         </is>
       </c>
       <c r="K58">
-        <f>TODAY()-C58</f>
+        <f>DATEDIF(C58, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12939,7 +12939,7 @@
         </is>
       </c>
       <c r="K59">
-        <f>TODAY()-C59</f>
+        <f>DATEDIF(C59, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -12989,7 +12989,7 @@
         </is>
       </c>
       <c r="K60">
-        <f>TODAY()-C60</f>
+        <f>DATEDIF(C60, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13039,7 +13039,7 @@
         </is>
       </c>
       <c r="K61">
-        <f>TODAY()-C61</f>
+        <f>DATEDIF(C61, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13089,7 +13089,7 @@
         </is>
       </c>
       <c r="K62">
-        <f>TODAY()-C62</f>
+        <f>DATEDIF(C62, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13139,7 +13139,7 @@
         </is>
       </c>
       <c r="K63">
-        <f>TODAY()-C63</f>
+        <f>DATEDIF(C63, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13184,7 +13184,7 @@
         </is>
       </c>
       <c r="K64">
-        <f>TODAY()-C64</f>
+        <f>DATEDIF(C64, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13234,7 +13234,7 @@
         </is>
       </c>
       <c r="K65">
-        <f>TODAY()-C65</f>
+        <f>DATEDIF(C65, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13284,7 +13284,7 @@
         </is>
       </c>
       <c r="K66">
-        <f>TODAY()-C66</f>
+        <f>DATEDIF(C66, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13334,7 +13334,7 @@
         </is>
       </c>
       <c r="K67">
-        <f>TODAY()-C67</f>
+        <f>DATEDIF(C67, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="K68">
-        <f>TODAY()-C68</f>
+        <f>DATEDIF(C68, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13434,7 +13434,7 @@
         </is>
       </c>
       <c r="K69">
-        <f>TODAY()-C69</f>
+        <f>DATEDIF(C69, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13484,7 +13484,7 @@
         </is>
       </c>
       <c r="K70">
-        <f>TODAY()-C70</f>
+        <f>DATEDIF(C70, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13534,7 +13534,7 @@
         </is>
       </c>
       <c r="K71">
-        <f>TODAY()-C71</f>
+        <f>DATEDIF(C71, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13584,7 +13584,7 @@
         </is>
       </c>
       <c r="K72">
-        <f>TODAY()-C72</f>
+        <f>DATEDIF(C72, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13634,7 +13634,7 @@
         </is>
       </c>
       <c r="K73">
-        <f>TODAY()-C73</f>
+        <f>DATEDIF(C73, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
         </is>
       </c>
       <c r="K74">
-        <f>TODAY()-C74</f>
+        <f>DATEDIF(C74, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
         </is>
       </c>
       <c r="K75">
-        <f>TODAY()-C75</f>
+        <f>DATEDIF(C75, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13779,7 +13779,7 @@
         </is>
       </c>
       <c r="K76">
-        <f>TODAY()-C76</f>
+        <f>DATEDIF(C76, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13829,7 +13829,7 @@
         </is>
       </c>
       <c r="K77">
-        <f>TODAY()-C77</f>
+        <f>DATEDIF(C77, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13879,7 +13879,7 @@
         </is>
       </c>
       <c r="K78">
-        <f>TODAY()-C78</f>
+        <f>DATEDIF(C78, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13929,7 +13929,7 @@
         </is>
       </c>
       <c r="K79">
-        <f>TODAY()-C79</f>
+        <f>DATEDIF(C79, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -13979,7 +13979,7 @@
         </is>
       </c>
       <c r="K80">
-        <f>TODAY()-C80</f>
+        <f>DATEDIF(C80, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14029,7 +14029,7 @@
         </is>
       </c>
       <c r="K81">
-        <f>TODAY()-C81</f>
+        <f>DATEDIF(C81, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14079,7 +14079,7 @@
         </is>
       </c>
       <c r="K82">
-        <f>TODAY()-C82</f>
+        <f>DATEDIF(C82, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14129,7 +14129,7 @@
         </is>
       </c>
       <c r="K83">
-        <f>TODAY()-C83</f>
+        <f>DATEDIF(C83, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14179,7 +14179,7 @@
         </is>
       </c>
       <c r="K84">
-        <f>TODAY()-C84</f>
+        <f>DATEDIF(C84, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="K85">
-        <f>TODAY()-C85</f>
+        <f>DATEDIF(C85, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14279,7 +14279,7 @@
         </is>
       </c>
       <c r="K86">
-        <f>TODAY()-C86</f>
+        <f>DATEDIF(C86, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14329,7 +14329,7 @@
         </is>
       </c>
       <c r="K87">
-        <f>TODAY()-C87</f>
+        <f>DATEDIF(C87, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14379,7 +14379,7 @@
         </is>
       </c>
       <c r="K88">
-        <f>TODAY()-C88</f>
+        <f>DATEDIF(C88, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14429,7 +14429,7 @@
         </is>
       </c>
       <c r="K89">
-        <f>TODAY()-C89</f>
+        <f>DATEDIF(C89, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14479,7 +14479,7 @@
         </is>
       </c>
       <c r="K90">
-        <f>TODAY()-C90</f>
+        <f>DATEDIF(C90, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
         </is>
       </c>
       <c r="K91">
-        <f>TODAY()-C91</f>
+        <f>DATEDIF(C91, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14579,7 +14579,7 @@
         </is>
       </c>
       <c r="K92">
-        <f>TODAY()-C92</f>
+        <f>DATEDIF(C92, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14629,7 +14629,7 @@
         </is>
       </c>
       <c r="K93">
-        <f>TODAY()-C93</f>
+        <f>DATEDIF(C93, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14679,7 +14679,7 @@
         </is>
       </c>
       <c r="K94">
-        <f>TODAY()-C94</f>
+        <f>DATEDIF(C94, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14729,7 +14729,7 @@
         </is>
       </c>
       <c r="K95">
-        <f>TODAY()-C95</f>
+        <f>DATEDIF(C95, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="K96">
-        <f>TODAY()-C96</f>
+        <f>DATEDIF(C96, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14829,7 +14829,7 @@
         </is>
       </c>
       <c r="K97">
-        <f>TODAY()-C97</f>
+        <f>DATEDIF(C97, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14879,7 +14879,7 @@
         </is>
       </c>
       <c r="K98">
-        <f>TODAY()-C98</f>
+        <f>DATEDIF(C98, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14929,7 +14929,7 @@
         </is>
       </c>
       <c r="K99">
-        <f>TODAY()-C99</f>
+        <f>DATEDIF(C99, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -14974,7 +14974,7 @@
         </is>
       </c>
       <c r="K100">
-        <f>TODAY()-C100</f>
+        <f>DATEDIF(C100, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15024,7 +15024,7 @@
         </is>
       </c>
       <c r="K101">
-        <f>TODAY()-C101</f>
+        <f>DATEDIF(C101, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15074,7 +15074,7 @@
         </is>
       </c>
       <c r="K102">
-        <f>TODAY()-C102</f>
+        <f>DATEDIF(C102, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15124,7 +15124,7 @@
         </is>
       </c>
       <c r="K103">
-        <f>TODAY()-C103</f>
+        <f>DATEDIF(C103, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15174,7 +15174,7 @@
         </is>
       </c>
       <c r="K104">
-        <f>TODAY()-C104</f>
+        <f>DATEDIF(C104, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15224,7 +15224,7 @@
         </is>
       </c>
       <c r="K105">
-        <f>TODAY()-C105</f>
+        <f>DATEDIF(C105, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15274,7 +15274,7 @@
         </is>
       </c>
       <c r="K106">
-        <f>TODAY()-C106</f>
+        <f>DATEDIF(C106, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15324,7 +15324,7 @@
         </is>
       </c>
       <c r="K107">
-        <f>TODAY()-C107</f>
+        <f>DATEDIF(C107, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15374,7 +15374,7 @@
         </is>
       </c>
       <c r="K108">
-        <f>TODAY()-C108</f>
+        <f>DATEDIF(C108, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15424,7 +15424,7 @@
         </is>
       </c>
       <c r="K109">
-        <f>TODAY()-C109</f>
+        <f>DATEDIF(C109, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15474,7 +15474,7 @@
         </is>
       </c>
       <c r="K110">
-        <f>TODAY()-C110</f>
+        <f>DATEDIF(C110, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15519,7 +15519,7 @@
         </is>
       </c>
       <c r="K111">
-        <f>TODAY()-C111</f>
+        <f>DATEDIF(C111, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15564,7 +15564,7 @@
         </is>
       </c>
       <c r="K112">
-        <f>TODAY()-C112</f>
+        <f>DATEDIF(C112, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15614,7 +15614,7 @@
         </is>
       </c>
       <c r="K113">
-        <f>TODAY()-C113</f>
+        <f>DATEDIF(C113, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15664,7 +15664,7 @@
         </is>
       </c>
       <c r="K114">
-        <f>TODAY()-C114</f>
+        <f>DATEDIF(C114, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15714,7 +15714,7 @@
         </is>
       </c>
       <c r="K115">
-        <f>TODAY()-C115</f>
+        <f>DATEDIF(C115, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15764,7 +15764,7 @@
         </is>
       </c>
       <c r="K116">
-        <f>TODAY()-C116</f>
+        <f>DATEDIF(C116, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15814,7 +15814,7 @@
         </is>
       </c>
       <c r="K117">
-        <f>TODAY()-C117</f>
+        <f>DATEDIF(C117, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15864,7 +15864,7 @@
         </is>
       </c>
       <c r="K118">
-        <f>TODAY()-C118</f>
+        <f>DATEDIF(C118, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15914,7 +15914,7 @@
         </is>
       </c>
       <c r="K119">
-        <f>TODAY()-C119</f>
+        <f>DATEDIF(C119, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -15959,7 +15959,7 @@
         </is>
       </c>
       <c r="K120">
-        <f>TODAY()-C120</f>
+        <f>DATEDIF(C120, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16004,7 +16004,7 @@
         </is>
       </c>
       <c r="K121">
-        <f>TODAY()-C121</f>
+        <f>DATEDIF(C121, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16049,7 +16049,7 @@
         </is>
       </c>
       <c r="K122">
-        <f>TODAY()-C122</f>
+        <f>DATEDIF(C122, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16099,7 +16099,7 @@
         </is>
       </c>
       <c r="K123">
-        <f>TODAY()-C123</f>
+        <f>DATEDIF(C123, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16292,7 +16292,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16337,7 +16337,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16490,7 +16490,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16540,7 +16540,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16590,7 +16590,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16640,7 +16640,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16690,7 +16690,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16740,7 +16740,7 @@
         </is>
       </c>
       <c r="K7">
-        <f>TODAY()-C7</f>
+        <f>DATEDIF(C7, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16790,7 +16790,7 @@
         </is>
       </c>
       <c r="K8">
-        <f>TODAY()-C8</f>
+        <f>DATEDIF(C8, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16840,7 +16840,7 @@
         </is>
       </c>
       <c r="K9">
-        <f>TODAY()-C9</f>
+        <f>DATEDIF(C9, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16890,7 +16890,7 @@
         </is>
       </c>
       <c r="K10">
-        <f>TODAY()-C10</f>
+        <f>DATEDIF(C10, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16940,7 +16940,7 @@
         </is>
       </c>
       <c r="K11">
-        <f>TODAY()-C11</f>
+        <f>DATEDIF(C11, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -16990,7 +16990,7 @@
         </is>
       </c>
       <c r="K12">
-        <f>TODAY()-C12</f>
+        <f>DATEDIF(C12, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17040,7 +17040,7 @@
         </is>
       </c>
       <c r="K13">
-        <f>TODAY()-C13</f>
+        <f>DATEDIF(C13, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17085,7 +17085,7 @@
         </is>
       </c>
       <c r="K14">
-        <f>TODAY()-C14</f>
+        <f>DATEDIF(C14, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17130,7 +17130,7 @@
         </is>
       </c>
       <c r="K15">
-        <f>TODAY()-C15</f>
+        <f>DATEDIF(C15, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17180,7 +17180,7 @@
         </is>
       </c>
       <c r="K16">
-        <f>TODAY()-C16</f>
+        <f>DATEDIF(C16, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17230,7 +17230,7 @@
         </is>
       </c>
       <c r="K17">
-        <f>TODAY()-C17</f>
+        <f>DATEDIF(C17, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17280,7 +17280,7 @@
         </is>
       </c>
       <c r="K18">
-        <f>TODAY()-C18</f>
+        <f>DATEDIF(C18, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="K19">
-        <f>TODAY()-C19</f>
+        <f>DATEDIF(C19, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17370,7 +17370,7 @@
         </is>
       </c>
       <c r="K20">
-        <f>TODAY()-C20</f>
+        <f>DATEDIF(C20, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17415,7 +17415,7 @@
         </is>
       </c>
       <c r="K21">
-        <f>TODAY()-C21</f>
+        <f>DATEDIF(C21, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17460,7 +17460,7 @@
         </is>
       </c>
       <c r="K22">
-        <f>TODAY()-C22</f>
+        <f>DATEDIF(C22, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17510,7 +17510,7 @@
         </is>
       </c>
       <c r="K23">
-        <f>TODAY()-C23</f>
+        <f>DATEDIF(C23, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
         </is>
       </c>
       <c r="K24">
-        <f>TODAY()-C24</f>
+        <f>DATEDIF(C24, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17610,7 +17610,7 @@
         </is>
       </c>
       <c r="K25">
-        <f>TODAY()-C25</f>
+        <f>DATEDIF(C25, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17655,7 +17655,7 @@
         </is>
       </c>
       <c r="K26">
-        <f>TODAY()-C26</f>
+        <f>DATEDIF(C26, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17700,7 +17700,7 @@
         </is>
       </c>
       <c r="K27">
-        <f>TODAY()-C27</f>
+        <f>DATEDIF(C27, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17745,7 +17745,7 @@
         </is>
       </c>
       <c r="K28">
-        <f>TODAY()-C28</f>
+        <f>DATEDIF(C28, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17790,7 +17790,7 @@
         </is>
       </c>
       <c r="K29">
-        <f>TODAY()-C29</f>
+        <f>DATEDIF(C29, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17835,7 +17835,7 @@
         </is>
       </c>
       <c r="K30">
-        <f>TODAY()-C30</f>
+        <f>DATEDIF(C30, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17880,7 +17880,7 @@
         </is>
       </c>
       <c r="K31">
-        <f>TODAY()-C31</f>
+        <f>DATEDIF(C31, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17930,7 +17930,7 @@
         </is>
       </c>
       <c r="K32">
-        <f>TODAY()-C32</f>
+        <f>DATEDIF(C32, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -17980,7 +17980,7 @@
         </is>
       </c>
       <c r="K33">
-        <f>TODAY()-C33</f>
+        <f>DATEDIF(C33, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18025,7 +18025,7 @@
         </is>
       </c>
       <c r="K34">
-        <f>TODAY()-C34</f>
+        <f>DATEDIF(C34, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18178,7 +18178,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18228,7 +18228,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18278,7 +18278,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18328,7 +18328,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18378,7 +18378,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18428,7 +18428,7 @@
         </is>
       </c>
       <c r="K7">
-        <f>TODAY()-C7</f>
+        <f>DATEDIF(C7, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="K8">
-        <f>TODAY()-C8</f>
+        <f>DATEDIF(C8, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18528,7 +18528,7 @@
         </is>
       </c>
       <c r="K9">
-        <f>TODAY()-C9</f>
+        <f>DATEDIF(C9, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18578,7 +18578,7 @@
         </is>
       </c>
       <c r="K10">
-        <f>TODAY()-C10</f>
+        <f>DATEDIF(C10, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18628,7 +18628,7 @@
         </is>
       </c>
       <c r="K11">
-        <f>TODAY()-C11</f>
+        <f>DATEDIF(C11, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18678,7 +18678,7 @@
         </is>
       </c>
       <c r="K12">
-        <f>TODAY()-C12</f>
+        <f>DATEDIF(C12, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18728,7 +18728,7 @@
         </is>
       </c>
       <c r="K13">
-        <f>TODAY()-C13</f>
+        <f>DATEDIF(C13, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18778,7 +18778,7 @@
         </is>
       </c>
       <c r="K14">
-        <f>TODAY()-C14</f>
+        <f>DATEDIF(C14, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18823,7 +18823,7 @@
         </is>
       </c>
       <c r="K15">
-        <f>TODAY()-C15</f>
+        <f>DATEDIF(C15, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18873,7 +18873,7 @@
         </is>
       </c>
       <c r="K16">
-        <f>TODAY()-C16</f>
+        <f>DATEDIF(C16, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18923,7 +18923,7 @@
         </is>
       </c>
       <c r="K17">
-        <f>TODAY()-C17</f>
+        <f>DATEDIF(C17, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -18973,7 +18973,7 @@
         </is>
       </c>
       <c r="K18">
-        <f>TODAY()-C18</f>
+        <f>DATEDIF(C18, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19023,7 +19023,7 @@
         </is>
       </c>
       <c r="K19">
-        <f>TODAY()-C19</f>
+        <f>DATEDIF(C19, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19073,7 +19073,7 @@
         </is>
       </c>
       <c r="K20">
-        <f>TODAY()-C20</f>
+        <f>DATEDIF(C20, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19123,7 +19123,7 @@
         </is>
       </c>
       <c r="K21">
-        <f>TODAY()-C21</f>
+        <f>DATEDIF(C21, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19173,7 +19173,7 @@
         </is>
       </c>
       <c r="K22">
-        <f>TODAY()-C22</f>
+        <f>DATEDIF(C22, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19223,7 +19223,7 @@
         </is>
       </c>
       <c r="K23">
-        <f>TODAY()-C23</f>
+        <f>DATEDIF(C23, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19273,7 +19273,7 @@
         </is>
       </c>
       <c r="K24">
-        <f>TODAY()-C24</f>
+        <f>DATEDIF(C24, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19323,7 +19323,7 @@
         </is>
       </c>
       <c r="K25">
-        <f>TODAY()-C25</f>
+        <f>DATEDIF(C25, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19373,7 +19373,7 @@
         </is>
       </c>
       <c r="K26">
-        <f>TODAY()-C26</f>
+        <f>DATEDIF(C26, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19423,7 +19423,7 @@
         </is>
       </c>
       <c r="K27">
-        <f>TODAY()-C27</f>
+        <f>DATEDIF(C27, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19468,7 +19468,7 @@
         </is>
       </c>
       <c r="K28">
-        <f>TODAY()-C28</f>
+        <f>DATEDIF(C28, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19513,7 +19513,7 @@
         </is>
       </c>
       <c r="K29">
-        <f>TODAY()-C29</f>
+        <f>DATEDIF(C29, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19558,7 +19558,7 @@
         </is>
       </c>
       <c r="K30">
-        <f>TODAY()-C30</f>
+        <f>DATEDIF(C30, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19608,7 +19608,7 @@
         </is>
       </c>
       <c r="K31">
-        <f>TODAY()-C31</f>
+        <f>DATEDIF(C31, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19658,7 +19658,7 @@
         </is>
       </c>
       <c r="K32">
-        <f>TODAY()-C32</f>
+        <f>DATEDIF(C32, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19708,7 +19708,7 @@
         </is>
       </c>
       <c r="K33">
-        <f>TODAY()-C33</f>
+        <f>DATEDIF(C33, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19753,7 +19753,7 @@
         </is>
       </c>
       <c r="K34">
-        <f>TODAY()-C34</f>
+        <f>DATEDIF(C34, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19798,7 +19798,7 @@
         </is>
       </c>
       <c r="K35">
-        <f>TODAY()-C35</f>
+        <f>DATEDIF(C35, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19843,7 +19843,7 @@
         </is>
       </c>
       <c r="K36">
-        <f>TODAY()-C36</f>
+        <f>DATEDIF(C36, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19888,7 +19888,7 @@
         </is>
       </c>
       <c r="K37">
-        <f>TODAY()-C37</f>
+        <f>DATEDIF(C37, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19938,7 +19938,7 @@
         </is>
       </c>
       <c r="K38">
-        <f>TODAY()-C38</f>
+        <f>DATEDIF(C38, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -19988,7 +19988,7 @@
         </is>
       </c>
       <c r="K39">
-        <f>TODAY()-C39</f>
+        <f>DATEDIF(C39, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20038,7 +20038,7 @@
         </is>
       </c>
       <c r="K40">
-        <f>TODAY()-C40</f>
+        <f>DATEDIF(C40, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20088,7 +20088,7 @@
         </is>
       </c>
       <c r="K41">
-        <f>TODAY()-C41</f>
+        <f>DATEDIF(C41, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20138,7 +20138,7 @@
         </is>
       </c>
       <c r="K42">
-        <f>TODAY()-C42</f>
+        <f>DATEDIF(C42, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20188,7 +20188,7 @@
         </is>
       </c>
       <c r="K43">
-        <f>TODAY()-C43</f>
+        <f>DATEDIF(C43, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20238,7 +20238,7 @@
         </is>
       </c>
       <c r="K44">
-        <f>TODAY()-C44</f>
+        <f>DATEDIF(C44, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20288,7 +20288,7 @@
         </is>
       </c>
       <c r="K45">
-        <f>TODAY()-C45</f>
+        <f>DATEDIF(C45, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20338,7 +20338,7 @@
         </is>
       </c>
       <c r="K46">
-        <f>TODAY()-C46</f>
+        <f>DATEDIF(C46, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20388,7 +20388,7 @@
         </is>
       </c>
       <c r="K47">
-        <f>TODAY()-C47</f>
+        <f>DATEDIF(C47, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20438,7 +20438,7 @@
         </is>
       </c>
       <c r="K48">
-        <f>TODAY()-C48</f>
+        <f>DATEDIF(C48, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20488,7 +20488,7 @@
         </is>
       </c>
       <c r="K49">
-        <f>TODAY()-C49</f>
+        <f>DATEDIF(C49, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20533,7 +20533,7 @@
         </is>
       </c>
       <c r="K50">
-        <f>TODAY()-C50</f>
+        <f>DATEDIF(C50, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20583,7 +20583,7 @@
         </is>
       </c>
       <c r="K51">
-        <f>TODAY()-C51</f>
+        <f>DATEDIF(C51, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20633,7 +20633,7 @@
         </is>
       </c>
       <c r="K52">
-        <f>TODAY()-C52</f>
+        <f>DATEDIF(C52, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20678,7 +20678,7 @@
         </is>
       </c>
       <c r="K53">
-        <f>TODAY()-C53</f>
+        <f>DATEDIF(C53, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20728,7 +20728,7 @@
         </is>
       </c>
       <c r="K54">
-        <f>TODAY()-C54</f>
+        <f>DATEDIF(C54, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20778,7 +20778,7 @@
         </is>
       </c>
       <c r="K55">
-        <f>TODAY()-C55</f>
+        <f>DATEDIF(C55, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20828,7 +20828,7 @@
         </is>
       </c>
       <c r="K56">
-        <f>TODAY()-C56</f>
+        <f>DATEDIF(C56, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20878,7 +20878,7 @@
         </is>
       </c>
       <c r="K57">
-        <f>TODAY()-C57</f>
+        <f>DATEDIF(C57, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20928,7 +20928,7 @@
         </is>
       </c>
       <c r="K58">
-        <f>TODAY()-C58</f>
+        <f>DATEDIF(C58, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -20978,7 +20978,7 @@
         </is>
       </c>
       <c r="K59">
-        <f>TODAY()-C59</f>
+        <f>DATEDIF(C59, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21028,7 +21028,7 @@
         </is>
       </c>
       <c r="K60">
-        <f>TODAY()-C60</f>
+        <f>DATEDIF(C60, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21078,7 +21078,7 @@
         </is>
       </c>
       <c r="K61">
-        <f>TODAY()-C61</f>
+        <f>DATEDIF(C61, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21128,7 +21128,7 @@
         </is>
       </c>
       <c r="K62">
-        <f>TODAY()-C62</f>
+        <f>DATEDIF(C62, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21178,7 +21178,7 @@
         </is>
       </c>
       <c r="K63">
-        <f>TODAY()-C63</f>
+        <f>DATEDIF(C63, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21228,7 +21228,7 @@
         </is>
       </c>
       <c r="K64">
-        <f>TODAY()-C64</f>
+        <f>DATEDIF(C64, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21278,7 +21278,7 @@
         </is>
       </c>
       <c r="K65">
-        <f>TODAY()-C65</f>
+        <f>DATEDIF(C65, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21328,7 +21328,7 @@
         </is>
       </c>
       <c r="K66">
-        <f>TODAY()-C66</f>
+        <f>DATEDIF(C66, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
         </is>
       </c>
       <c r="K67">
-        <f>TODAY()-C67</f>
+        <f>DATEDIF(C67, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21428,7 +21428,7 @@
         </is>
       </c>
       <c r="K68">
-        <f>TODAY()-C68</f>
+        <f>DATEDIF(C68, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21478,7 +21478,7 @@
         </is>
       </c>
       <c r="K69">
-        <f>TODAY()-C69</f>
+        <f>DATEDIF(C69, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21528,7 +21528,7 @@
         </is>
       </c>
       <c r="K70">
-        <f>TODAY()-C70</f>
+        <f>DATEDIF(C70, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21578,7 +21578,7 @@
         </is>
       </c>
       <c r="K71">
-        <f>TODAY()-C71</f>
+        <f>DATEDIF(C71, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21623,7 +21623,7 @@
         </is>
       </c>
       <c r="K72">
-        <f>TODAY()-C72</f>
+        <f>DATEDIF(C72, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21673,7 +21673,7 @@
         </is>
       </c>
       <c r="K73">
-        <f>TODAY()-C73</f>
+        <f>DATEDIF(C73, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21876,7 +21876,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21926,7 +21926,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -21976,7 +21976,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22026,7 +22026,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22076,7 +22076,7 @@
         </is>
       </c>
       <c r="K7">
-        <f>TODAY()-C7</f>
+        <f>DATEDIF(C7, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22126,7 +22126,7 @@
         </is>
       </c>
       <c r="K8">
-        <f>TODAY()-C8</f>
+        <f>DATEDIF(C8, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22176,7 +22176,7 @@
         </is>
       </c>
       <c r="K9">
-        <f>TODAY()-C9</f>
+        <f>DATEDIF(C9, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="K10">
-        <f>TODAY()-C10</f>
+        <f>DATEDIF(C10, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22276,7 +22276,7 @@
         </is>
       </c>
       <c r="K11">
-        <f>TODAY()-C11</f>
+        <f>DATEDIF(C11, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="K12">
-        <f>TODAY()-C12</f>
+        <f>DATEDIF(C12, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22366,7 +22366,7 @@
         </is>
       </c>
       <c r="K13">
-        <f>TODAY()-C13</f>
+        <f>DATEDIF(C13, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="K14">
-        <f>TODAY()-C14</f>
+        <f>DATEDIF(C14, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22461,7 +22461,7 @@
         </is>
       </c>
       <c r="K15">
-        <f>TODAY()-C15</f>
+        <f>DATEDIF(C15, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="K16">
-        <f>TODAY()-C16</f>
+        <f>DATEDIF(C16, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22561,7 +22561,7 @@
         </is>
       </c>
       <c r="K17">
-        <f>TODAY()-C17</f>
+        <f>DATEDIF(C17, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22611,7 +22611,7 @@
         </is>
       </c>
       <c r="K18">
-        <f>TODAY()-C18</f>
+        <f>DATEDIF(C18, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22661,7 +22661,7 @@
         </is>
       </c>
       <c r="K19">
-        <f>TODAY()-C19</f>
+        <f>DATEDIF(C19, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22711,7 +22711,7 @@
         </is>
       </c>
       <c r="K20">
-        <f>TODAY()-C20</f>
+        <f>DATEDIF(C20, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22761,7 +22761,7 @@
         </is>
       </c>
       <c r="K21">
-        <f>TODAY()-C21</f>
+        <f>DATEDIF(C21, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22811,7 +22811,7 @@
         </is>
       </c>
       <c r="K22">
-        <f>TODAY()-C22</f>
+        <f>DATEDIF(C22, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22861,7 +22861,7 @@
         </is>
       </c>
       <c r="K23">
-        <f>TODAY()-C23</f>
+        <f>DATEDIF(C23, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22911,7 +22911,7 @@
         </is>
       </c>
       <c r="K24">
-        <f>TODAY()-C24</f>
+        <f>DATEDIF(C24, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -22961,7 +22961,7 @@
         </is>
       </c>
       <c r="K25">
-        <f>TODAY()-C25</f>
+        <f>DATEDIF(C25, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23006,7 +23006,7 @@
         </is>
       </c>
       <c r="K26">
-        <f>TODAY()-C26</f>
+        <f>DATEDIF(C26, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23051,7 +23051,7 @@
         </is>
       </c>
       <c r="K27">
-        <f>TODAY()-C27</f>
+        <f>DATEDIF(C27, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23101,7 +23101,7 @@
         </is>
       </c>
       <c r="K28">
-        <f>TODAY()-C28</f>
+        <f>DATEDIF(C28, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23151,7 +23151,7 @@
         </is>
       </c>
       <c r="K29">
-        <f>TODAY()-C29</f>
+        <f>DATEDIF(C29, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23201,7 +23201,7 @@
         </is>
       </c>
       <c r="K30">
-        <f>TODAY()-C30</f>
+        <f>DATEDIF(C30, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23251,7 +23251,7 @@
         </is>
       </c>
       <c r="K31">
-        <f>TODAY()-C31</f>
+        <f>DATEDIF(C31, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="K32">
-        <f>TODAY()-C32</f>
+        <f>DATEDIF(C32, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23351,7 +23351,7 @@
         </is>
       </c>
       <c r="K33">
-        <f>TODAY()-C33</f>
+        <f>DATEDIF(C33, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23401,7 +23401,7 @@
         </is>
       </c>
       <c r="K34">
-        <f>TODAY()-C34</f>
+        <f>DATEDIF(C34, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23451,7 +23451,7 @@
         </is>
       </c>
       <c r="K35">
-        <f>TODAY()-C35</f>
+        <f>DATEDIF(C35, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23501,7 +23501,7 @@
         </is>
       </c>
       <c r="K36">
-        <f>TODAY()-C36</f>
+        <f>DATEDIF(C36, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23551,7 +23551,7 @@
         </is>
       </c>
       <c r="K37">
-        <f>TODAY()-C37</f>
+        <f>DATEDIF(C37, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23601,7 +23601,7 @@
         </is>
       </c>
       <c r="K38">
-        <f>TODAY()-C38</f>
+        <f>DATEDIF(C38, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23651,7 +23651,7 @@
         </is>
       </c>
       <c r="K39">
-        <f>TODAY()-C39</f>
+        <f>DATEDIF(C39, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23701,7 +23701,7 @@
         </is>
       </c>
       <c r="K40">
-        <f>TODAY()-C40</f>
+        <f>DATEDIF(C40, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23751,7 +23751,7 @@
         </is>
       </c>
       <c r="K41">
-        <f>TODAY()-C41</f>
+        <f>DATEDIF(C41, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23801,7 +23801,7 @@
         </is>
       </c>
       <c r="K42">
-        <f>TODAY()-C42</f>
+        <f>DATEDIF(C42, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="K43">
-        <f>TODAY()-C43</f>
+        <f>DATEDIF(C43, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23901,7 +23901,7 @@
         </is>
       </c>
       <c r="K44">
-        <f>TODAY()-C44</f>
+        <f>DATEDIF(C44, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23951,7 +23951,7 @@
         </is>
       </c>
       <c r="K45">
-        <f>TODAY()-C45</f>
+        <f>DATEDIF(C45, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="K46">
-        <f>TODAY()-C46</f>
+        <f>DATEDIF(C46, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24041,7 +24041,7 @@
         </is>
       </c>
       <c r="K47">
-        <f>TODAY()-C47</f>
+        <f>DATEDIF(C47, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24086,7 +24086,7 @@
         </is>
       </c>
       <c r="K48">
-        <f>TODAY()-C48</f>
+        <f>DATEDIF(C48, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24131,7 +24131,7 @@
         </is>
       </c>
       <c r="K49">
-        <f>TODAY()-C49</f>
+        <f>DATEDIF(C49, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24176,7 +24176,7 @@
         </is>
       </c>
       <c r="K50">
-        <f>TODAY()-C50</f>
+        <f>DATEDIF(C50, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="K51">
-        <f>TODAY()-C51</f>
+        <f>DATEDIF(C51, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24276,7 +24276,7 @@
         </is>
       </c>
       <c r="K52">
-        <f>TODAY()-C52</f>
+        <f>DATEDIF(C52, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="K53">
-        <f>TODAY()-C53</f>
+        <f>DATEDIF(C53, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="K54">
-        <f>TODAY()-C54</f>
+        <f>DATEDIF(C54, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24416,7 +24416,7 @@
         </is>
       </c>
       <c r="K55">
-        <f>TODAY()-C55</f>
+        <f>DATEDIF(C55, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24461,7 +24461,7 @@
         </is>
       </c>
       <c r="K56">
-        <f>TODAY()-C56</f>
+        <f>DATEDIF(C56, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24511,7 +24511,7 @@
         </is>
       </c>
       <c r="K57">
-        <f>TODAY()-C57</f>
+        <f>DATEDIF(C57, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24561,7 +24561,7 @@
         </is>
       </c>
       <c r="K58">
-        <f>TODAY()-C58</f>
+        <f>DATEDIF(C58, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24611,7 +24611,7 @@
         </is>
       </c>
       <c r="K59">
-        <f>TODAY()-C59</f>
+        <f>DATEDIF(C59, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24661,7 +24661,7 @@
         </is>
       </c>
       <c r="K60">
-        <f>TODAY()-C60</f>
+        <f>DATEDIF(C60, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24711,7 +24711,7 @@
         </is>
       </c>
       <c r="K61">
-        <f>TODAY()-C61</f>
+        <f>DATEDIF(C61, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24761,7 +24761,7 @@
         </is>
       </c>
       <c r="K62">
-        <f>TODAY()-C62</f>
+        <f>DATEDIF(C62, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
         </is>
       </c>
       <c r="K63">
-        <f>TODAY()-C63</f>
+        <f>DATEDIF(C63, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24861,7 +24861,7 @@
         </is>
       </c>
       <c r="K64">
-        <f>TODAY()-C64</f>
+        <f>DATEDIF(C64, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24911,7 +24911,7 @@
         </is>
       </c>
       <c r="K65">
-        <f>TODAY()-C65</f>
+        <f>DATEDIF(C65, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -24961,7 +24961,7 @@
         </is>
       </c>
       <c r="K66">
-        <f>TODAY()-C66</f>
+        <f>DATEDIF(C66, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25011,7 +25011,7 @@
         </is>
       </c>
       <c r="K67">
-        <f>TODAY()-C67</f>
+        <f>DATEDIF(C67, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25056,7 +25056,7 @@
         </is>
       </c>
       <c r="K68">
-        <f>TODAY()-C68</f>
+        <f>DATEDIF(C68, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="K69">
-        <f>TODAY()-C69</f>
+        <f>DATEDIF(C69, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="K70">
-        <f>TODAY()-C70</f>
+        <f>DATEDIF(C70, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25191,7 +25191,7 @@
         </is>
       </c>
       <c r="K71">
-        <f>TODAY()-C71</f>
+        <f>DATEDIF(C71, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25241,7 +25241,7 @@
         </is>
       </c>
       <c r="K72">
-        <f>TODAY()-C72</f>
+        <f>DATEDIF(C72, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="K73">
-        <f>TODAY()-C73</f>
+        <f>DATEDIF(C73, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25341,7 +25341,7 @@
         </is>
       </c>
       <c r="K74">
-        <f>TODAY()-C74</f>
+        <f>DATEDIF(C74, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25391,7 +25391,7 @@
         </is>
       </c>
       <c r="K75">
-        <f>TODAY()-C75</f>
+        <f>DATEDIF(C75, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25441,7 +25441,7 @@
         </is>
       </c>
       <c r="K76">
-        <f>TODAY()-C76</f>
+        <f>DATEDIF(C76, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25491,7 +25491,7 @@
         </is>
       </c>
       <c r="K77">
-        <f>TODAY()-C77</f>
+        <f>DATEDIF(C77, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25541,7 +25541,7 @@
         </is>
       </c>
       <c r="K78">
-        <f>TODAY()-C78</f>
+        <f>DATEDIF(C78, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25591,7 +25591,7 @@
         </is>
       </c>
       <c r="K79">
-        <f>TODAY()-C79</f>
+        <f>DATEDIF(C79, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25641,7 +25641,7 @@
         </is>
       </c>
       <c r="K80">
-        <f>TODAY()-C80</f>
+        <f>DATEDIF(C80, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25691,7 +25691,7 @@
         </is>
       </c>
       <c r="K81">
-        <f>TODAY()-C81</f>
+        <f>DATEDIF(C81, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25741,7 +25741,7 @@
         </is>
       </c>
       <c r="K82">
-        <f>TODAY()-C82</f>
+        <f>DATEDIF(C82, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25791,7 +25791,7 @@
         </is>
       </c>
       <c r="K83">
-        <f>TODAY()-C83</f>
+        <f>DATEDIF(C83, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25841,7 +25841,7 @@
         </is>
       </c>
       <c r="K84">
-        <f>TODAY()-C84</f>
+        <f>DATEDIF(C84, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25891,7 +25891,7 @@
         </is>
       </c>
       <c r="K85">
-        <f>TODAY()-C85</f>
+        <f>DATEDIF(C85, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="K86">
-        <f>TODAY()-C86</f>
+        <f>DATEDIF(C86, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -25991,7 +25991,7 @@
         </is>
       </c>
       <c r="K87">
-        <f>TODAY()-C87</f>
+        <f>DATEDIF(C87, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26036,7 +26036,7 @@
         </is>
       </c>
       <c r="K88">
-        <f>TODAY()-C88</f>
+        <f>DATEDIF(C88, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26081,7 +26081,7 @@
         </is>
       </c>
       <c r="K89">
-        <f>TODAY()-C89</f>
+        <f>DATEDIF(C89, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26126,7 +26126,7 @@
         </is>
       </c>
       <c r="K90">
-        <f>TODAY()-C90</f>
+        <f>DATEDIF(C90, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="K91">
-        <f>TODAY()-C91</f>
+        <f>DATEDIF(C91, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26216,7 +26216,7 @@
         </is>
       </c>
       <c r="K92">
-        <f>TODAY()-C92</f>
+        <f>DATEDIF(C92, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26261,7 +26261,7 @@
         </is>
       </c>
       <c r="K93">
-        <f>TODAY()-C93</f>
+        <f>DATEDIF(C93, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="K94">
-        <f>TODAY()-C94</f>
+        <f>DATEDIF(C94, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26356,7 +26356,7 @@
         </is>
       </c>
       <c r="K95">
-        <f>TODAY()-C95</f>
+        <f>DATEDIF(C95, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26406,7 +26406,7 @@
         </is>
       </c>
       <c r="K96">
-        <f>TODAY()-C96</f>
+        <f>DATEDIF(C96, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26456,7 +26456,7 @@
         </is>
       </c>
       <c r="K97">
-        <f>TODAY()-C97</f>
+        <f>DATEDIF(C97, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26506,7 +26506,7 @@
         </is>
       </c>
       <c r="K98">
-        <f>TODAY()-C98</f>
+        <f>DATEDIF(C98, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26556,7 +26556,7 @@
         </is>
       </c>
       <c r="K99">
-        <f>TODAY()-C99</f>
+        <f>DATEDIF(C99, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26606,7 +26606,7 @@
         </is>
       </c>
       <c r="K100">
-        <f>TODAY()-C100</f>
+        <f>DATEDIF(C100, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26656,7 +26656,7 @@
         </is>
       </c>
       <c r="K101">
-        <f>TODAY()-C101</f>
+        <f>DATEDIF(C101, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="K102">
-        <f>TODAY()-C102</f>
+        <f>DATEDIF(C102, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26756,7 +26756,7 @@
         </is>
       </c>
       <c r="K103">
-        <f>TODAY()-C103</f>
+        <f>DATEDIF(C103, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26806,7 +26806,7 @@
         </is>
       </c>
       <c r="K104">
-        <f>TODAY()-C104</f>
+        <f>DATEDIF(C104, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26856,7 +26856,7 @@
         </is>
       </c>
       <c r="K105">
-        <f>TODAY()-C105</f>
+        <f>DATEDIF(C105, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26906,7 +26906,7 @@
         </is>
       </c>
       <c r="K106">
-        <f>TODAY()-C106</f>
+        <f>DATEDIF(C106, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -26956,7 +26956,7 @@
         </is>
       </c>
       <c r="K107">
-        <f>TODAY()-C107</f>
+        <f>DATEDIF(C107, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27006,7 +27006,7 @@
         </is>
       </c>
       <c r="K108">
-        <f>TODAY()-C108</f>
+        <f>DATEDIF(C108, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27056,7 +27056,7 @@
         </is>
       </c>
       <c r="K109">
-        <f>TODAY()-C109</f>
+        <f>DATEDIF(C109, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="K110">
-        <f>TODAY()-C110</f>
+        <f>DATEDIF(C110, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27156,7 +27156,7 @@
         </is>
       </c>
       <c r="K111">
-        <f>TODAY()-C111</f>
+        <f>DATEDIF(C111, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27206,7 +27206,7 @@
         </is>
       </c>
       <c r="K112">
-        <f>TODAY()-C112</f>
+        <f>DATEDIF(C112, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27256,7 +27256,7 @@
         </is>
       </c>
       <c r="K113">
-        <f>TODAY()-C113</f>
+        <f>DATEDIF(C113, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27306,7 +27306,7 @@
         </is>
       </c>
       <c r="K114">
-        <f>TODAY()-C114</f>
+        <f>DATEDIF(C114, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27356,7 +27356,7 @@
         </is>
       </c>
       <c r="K115">
-        <f>TODAY()-C115</f>
+        <f>DATEDIF(C115, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27406,7 +27406,7 @@
         </is>
       </c>
       <c r="K116">
-        <f>TODAY()-C116</f>
+        <f>DATEDIF(C116, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="K117">
-        <f>TODAY()-C117</f>
+        <f>DATEDIF(C117, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="K118">
-        <f>TODAY()-C118</f>
+        <f>DATEDIF(C118, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27541,7 +27541,7 @@
         </is>
       </c>
       <c r="K119">
-        <f>TODAY()-C119</f>
+        <f>DATEDIF(C119, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="K120">
-        <f>TODAY()-C120</f>
+        <f>DATEDIF(C120, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27631,7 +27631,7 @@
         </is>
       </c>
       <c r="K121">
-        <f>TODAY()-C121</f>
+        <f>DATEDIF(C121, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27681,7 +27681,7 @@
         </is>
       </c>
       <c r="K122">
-        <f>TODAY()-C122</f>
+        <f>DATEDIF(C122, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27731,7 +27731,7 @@
         </is>
       </c>
       <c r="K123">
-        <f>TODAY()-C123</f>
+        <f>DATEDIF(C123, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27781,7 +27781,7 @@
         </is>
       </c>
       <c r="K124">
-        <f>TODAY()-C124</f>
+        <f>DATEDIF(C124, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27831,7 +27831,7 @@
         </is>
       </c>
       <c r="K125">
-        <f>TODAY()-C125</f>
+        <f>DATEDIF(C125, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27881,7 +27881,7 @@
         </is>
       </c>
       <c r="K126">
-        <f>TODAY()-C126</f>
+        <f>DATEDIF(C126, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="K127">
-        <f>TODAY()-C127</f>
+        <f>DATEDIF(C127, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="K128">
-        <f>TODAY()-C128</f>
+        <f>DATEDIF(C128, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28026,7 +28026,7 @@
         </is>
       </c>
       <c r="K129">
-        <f>TODAY()-C129</f>
+        <f>DATEDIF(C129, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28076,7 +28076,7 @@
         </is>
       </c>
       <c r="K130">
-        <f>TODAY()-C130</f>
+        <f>DATEDIF(C130, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28126,7 +28126,7 @@
         </is>
       </c>
       <c r="K131">
-        <f>TODAY()-C131</f>
+        <f>DATEDIF(C131, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28176,7 +28176,7 @@
         </is>
       </c>
       <c r="K132">
-        <f>TODAY()-C132</f>
+        <f>DATEDIF(C132, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="K133">
-        <f>TODAY()-C133</f>
+        <f>DATEDIF(C133, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28276,7 +28276,7 @@
         </is>
       </c>
       <c r="K134">
-        <f>TODAY()-C134</f>
+        <f>DATEDIF(C134, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="K135">
-        <f>TODAY()-C135</f>
+        <f>DATEDIF(C135, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28376,7 +28376,7 @@
         </is>
       </c>
       <c r="K136">
-        <f>TODAY()-C136</f>
+        <f>DATEDIF(C136, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28426,7 +28426,7 @@
         </is>
       </c>
       <c r="K137">
-        <f>TODAY()-C137</f>
+        <f>DATEDIF(C137, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28471,7 +28471,7 @@
         </is>
       </c>
       <c r="K138">
-        <f>TODAY()-C138</f>
+        <f>DATEDIF(C138, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28516,7 +28516,7 @@
         </is>
       </c>
       <c r="K139">
-        <f>TODAY()-C139</f>
+        <f>DATEDIF(C139, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="K140">
-        <f>TODAY()-C140</f>
+        <f>DATEDIF(C140, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28714,7 +28714,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28764,7 +28764,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28814,7 +28814,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28864,7 +28864,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28914,7 +28914,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -28964,7 +28964,7 @@
         </is>
       </c>
       <c r="K7">
-        <f>TODAY()-C7</f>
+        <f>DATEDIF(C7, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29014,7 +29014,7 @@
         </is>
       </c>
       <c r="K8">
-        <f>TODAY()-C8</f>
+        <f>DATEDIF(C8, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29064,7 +29064,7 @@
         </is>
       </c>
       <c r="K9">
-        <f>TODAY()-C9</f>
+        <f>DATEDIF(C9, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="K10">
-        <f>TODAY()-C10</f>
+        <f>DATEDIF(C10, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29164,7 +29164,7 @@
         </is>
       </c>
       <c r="K11">
-        <f>TODAY()-C11</f>
+        <f>DATEDIF(C11, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29214,7 +29214,7 @@
         </is>
       </c>
       <c r="K12">
-        <f>TODAY()-C12</f>
+        <f>DATEDIF(C12, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29264,7 +29264,7 @@
         </is>
       </c>
       <c r="K13">
-        <f>TODAY()-C13</f>
+        <f>DATEDIF(C13, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29314,7 +29314,7 @@
         </is>
       </c>
       <c r="K14">
-        <f>TODAY()-C14</f>
+        <f>DATEDIF(C14, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29364,7 +29364,7 @@
         </is>
       </c>
       <c r="K15">
-        <f>TODAY()-C15</f>
+        <f>DATEDIF(C15, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29414,7 +29414,7 @@
         </is>
       </c>
       <c r="K16">
-        <f>TODAY()-C16</f>
+        <f>DATEDIF(C16, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29464,7 +29464,7 @@
         </is>
       </c>
       <c r="K17">
-        <f>TODAY()-C17</f>
+        <f>DATEDIF(C17, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29514,7 +29514,7 @@
         </is>
       </c>
       <c r="K18">
-        <f>TODAY()-C18</f>
+        <f>DATEDIF(C18, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29564,7 +29564,7 @@
         </is>
       </c>
       <c r="K19">
-        <f>TODAY()-C19</f>
+        <f>DATEDIF(C19, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29614,7 +29614,7 @@
         </is>
       </c>
       <c r="K20">
-        <f>TODAY()-C20</f>
+        <f>DATEDIF(C20, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29664,7 +29664,7 @@
         </is>
       </c>
       <c r="K21">
-        <f>TODAY()-C21</f>
+        <f>DATEDIF(C21, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29714,7 +29714,7 @@
         </is>
       </c>
       <c r="K22">
-        <f>TODAY()-C22</f>
+        <f>DATEDIF(C22, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29764,7 +29764,7 @@
         </is>
       </c>
       <c r="K23">
-        <f>TODAY()-C23</f>
+        <f>DATEDIF(C23, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29814,7 +29814,7 @@
         </is>
       </c>
       <c r="K24">
-        <f>TODAY()-C24</f>
+        <f>DATEDIF(C24, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29864,7 +29864,7 @@
         </is>
       </c>
       <c r="K25">
-        <f>TODAY()-C25</f>
+        <f>DATEDIF(C25, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29914,7 +29914,7 @@
         </is>
       </c>
       <c r="K26">
-        <f>TODAY()-C26</f>
+        <f>DATEDIF(C26, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -29964,7 +29964,7 @@
         </is>
       </c>
       <c r="K27">
-        <f>TODAY()-C27</f>
+        <f>DATEDIF(C27, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30014,7 +30014,7 @@
         </is>
       </c>
       <c r="K28">
-        <f>TODAY()-C28</f>
+        <f>DATEDIF(C28, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30064,7 +30064,7 @@
         </is>
       </c>
       <c r="K29">
-        <f>TODAY()-C29</f>
+        <f>DATEDIF(C29, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30114,7 +30114,7 @@
         </is>
       </c>
       <c r="K30">
-        <f>TODAY()-C30</f>
+        <f>DATEDIF(C30, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30164,7 +30164,7 @@
         </is>
       </c>
       <c r="K31">
-        <f>TODAY()-C31</f>
+        <f>DATEDIF(C31, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30214,7 +30214,7 @@
         </is>
       </c>
       <c r="K32">
-        <f>TODAY()-C32</f>
+        <f>DATEDIF(C32, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30264,7 +30264,7 @@
         </is>
       </c>
       <c r="K33">
-        <f>TODAY()-C33</f>
+        <f>DATEDIF(C33, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30314,7 +30314,7 @@
         </is>
       </c>
       <c r="K34">
-        <f>TODAY()-C34</f>
+        <f>DATEDIF(C34, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30364,7 +30364,7 @@
         </is>
       </c>
       <c r="K35">
-        <f>TODAY()-C35</f>
+        <f>DATEDIF(C35, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30414,7 +30414,7 @@
         </is>
       </c>
       <c r="K36">
-        <f>TODAY()-C36</f>
+        <f>DATEDIF(C36, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30464,7 +30464,7 @@
         </is>
       </c>
       <c r="K37">
-        <f>TODAY()-C37</f>
+        <f>DATEDIF(C37, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30514,7 +30514,7 @@
         </is>
       </c>
       <c r="K38">
-        <f>TODAY()-C38</f>
+        <f>DATEDIF(C38, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30564,7 +30564,7 @@
         </is>
       </c>
       <c r="K39">
-        <f>TODAY()-C39</f>
+        <f>DATEDIF(C39, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30614,7 +30614,7 @@
         </is>
       </c>
       <c r="K40">
-        <f>TODAY()-C40</f>
+        <f>DATEDIF(C40, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30664,7 +30664,7 @@
         </is>
       </c>
       <c r="K41">
-        <f>TODAY()-C41</f>
+        <f>DATEDIF(C41, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30714,7 +30714,7 @@
         </is>
       </c>
       <c r="K42">
-        <f>TODAY()-C42</f>
+        <f>DATEDIF(C42, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30764,7 +30764,7 @@
         </is>
       </c>
       <c r="K43">
-        <f>TODAY()-C43</f>
+        <f>DATEDIF(C43, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30814,7 +30814,7 @@
         </is>
       </c>
       <c r="K44">
-        <f>TODAY()-C44</f>
+        <f>DATEDIF(C44, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30864,7 +30864,7 @@
         </is>
       </c>
       <c r="K45">
-        <f>TODAY()-C45</f>
+        <f>DATEDIF(C45, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30914,7 +30914,7 @@
         </is>
       </c>
       <c r="K46">
-        <f>TODAY()-C46</f>
+        <f>DATEDIF(C46, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -30964,7 +30964,7 @@
         </is>
       </c>
       <c r="K47">
-        <f>TODAY()-C47</f>
+        <f>DATEDIF(C47, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31014,7 +31014,7 @@
         </is>
       </c>
       <c r="K48">
-        <f>TODAY()-C48</f>
+        <f>DATEDIF(C48, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31064,7 +31064,7 @@
         </is>
       </c>
       <c r="K49">
-        <f>TODAY()-C49</f>
+        <f>DATEDIF(C49, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31114,7 +31114,7 @@
         </is>
       </c>
       <c r="K50">
-        <f>TODAY()-C50</f>
+        <f>DATEDIF(C50, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31159,7 +31159,7 @@
         </is>
       </c>
       <c r="K51">
-        <f>TODAY()-C51</f>
+        <f>DATEDIF(C51, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31204,7 +31204,7 @@
         </is>
       </c>
       <c r="K52">
-        <f>TODAY()-C52</f>
+        <f>DATEDIF(C52, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31249,7 +31249,7 @@
         </is>
       </c>
       <c r="K53">
-        <f>TODAY()-C53</f>
+        <f>DATEDIF(C53, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31294,7 +31294,7 @@
         </is>
       </c>
       <c r="K54">
-        <f>TODAY()-C54</f>
+        <f>DATEDIF(C54, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="K55">
-        <f>TODAY()-C55</f>
+        <f>DATEDIF(C55, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31389,7 +31389,7 @@
         </is>
       </c>
       <c r="K56">
-        <f>TODAY()-C56</f>
+        <f>DATEDIF(C56, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31439,7 +31439,7 @@
         </is>
       </c>
       <c r="K57">
-        <f>TODAY()-C57</f>
+        <f>DATEDIF(C57, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31489,7 +31489,7 @@
         </is>
       </c>
       <c r="K58">
-        <f>TODAY()-C58</f>
+        <f>DATEDIF(C58, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31539,7 +31539,7 @@
         </is>
       </c>
       <c r="K59">
-        <f>TODAY()-C59</f>
+        <f>DATEDIF(C59, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31584,7 +31584,7 @@
         </is>
       </c>
       <c r="K60">
-        <f>TODAY()-C60</f>
+        <f>DATEDIF(C60, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31634,7 +31634,7 @@
         </is>
       </c>
       <c r="K61">
-        <f>TODAY()-C61</f>
+        <f>DATEDIF(C61, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31684,7 +31684,7 @@
         </is>
       </c>
       <c r="K62">
-        <f>TODAY()-C62</f>
+        <f>DATEDIF(C62, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31734,7 +31734,7 @@
         </is>
       </c>
       <c r="K63">
-        <f>TODAY()-C63</f>
+        <f>DATEDIF(C63, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31784,7 +31784,7 @@
         </is>
       </c>
       <c r="K64">
-        <f>TODAY()-C64</f>
+        <f>DATEDIF(C64, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31834,7 +31834,7 @@
         </is>
       </c>
       <c r="K65">
-        <f>TODAY()-C65</f>
+        <f>DATEDIF(C65, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31884,7 +31884,7 @@
         </is>
       </c>
       <c r="K66">
-        <f>TODAY()-C66</f>
+        <f>DATEDIF(C66, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31934,7 +31934,7 @@
         </is>
       </c>
       <c r="K67">
-        <f>TODAY()-C67</f>
+        <f>DATEDIF(C67, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -31984,7 +31984,7 @@
         </is>
       </c>
       <c r="K68">
-        <f>TODAY()-C68</f>
+        <f>DATEDIF(C68, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32034,7 +32034,7 @@
         </is>
       </c>
       <c r="K69">
-        <f>TODAY()-C69</f>
+        <f>DATEDIF(C69, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32084,7 +32084,7 @@
         </is>
       </c>
       <c r="K70">
-        <f>TODAY()-C70</f>
+        <f>DATEDIF(C70, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32134,7 +32134,7 @@
         </is>
       </c>
       <c r="K71">
-        <f>TODAY()-C71</f>
+        <f>DATEDIF(C71, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32184,7 +32184,7 @@
         </is>
       </c>
       <c r="K72">
-        <f>TODAY()-C72</f>
+        <f>DATEDIF(C72, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32234,7 +32234,7 @@
         </is>
       </c>
       <c r="K73">
-        <f>TODAY()-C73</f>
+        <f>DATEDIF(C73, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32284,7 +32284,7 @@
         </is>
       </c>
       <c r="K74">
-        <f>TODAY()-C74</f>
+        <f>DATEDIF(C74, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32334,7 +32334,7 @@
         </is>
       </c>
       <c r="K75">
-        <f>TODAY()-C75</f>
+        <f>DATEDIF(C75, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32384,7 +32384,7 @@
         </is>
       </c>
       <c r="K76">
-        <f>TODAY()-C76</f>
+        <f>DATEDIF(C76, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32434,7 +32434,7 @@
         </is>
       </c>
       <c r="K77">
-        <f>TODAY()-C77</f>
+        <f>DATEDIF(C77, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32484,7 +32484,7 @@
         </is>
       </c>
       <c r="K78">
-        <f>TODAY()-C78</f>
+        <f>DATEDIF(C78, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32534,7 +32534,7 @@
         </is>
       </c>
       <c r="K79">
-        <f>TODAY()-C79</f>
+        <f>DATEDIF(C79, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32584,7 +32584,7 @@
         </is>
       </c>
       <c r="K80">
-        <f>TODAY()-C80</f>
+        <f>DATEDIF(C80, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32634,7 +32634,7 @@
         </is>
       </c>
       <c r="K81">
-        <f>TODAY()-C81</f>
+        <f>DATEDIF(C81, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32684,7 +32684,7 @@
         </is>
       </c>
       <c r="K82">
-        <f>TODAY()-C82</f>
+        <f>DATEDIF(C82, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32734,7 +32734,7 @@
         </is>
       </c>
       <c r="K83">
-        <f>TODAY()-C83</f>
+        <f>DATEDIF(C83, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32784,7 +32784,7 @@
         </is>
       </c>
       <c r="K84">
-        <f>TODAY()-C84</f>
+        <f>DATEDIF(C84, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32834,7 +32834,7 @@
         </is>
       </c>
       <c r="K85">
-        <f>TODAY()-C85</f>
+        <f>DATEDIF(C85, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32884,7 +32884,7 @@
         </is>
       </c>
       <c r="K86">
-        <f>TODAY()-C86</f>
+        <f>DATEDIF(C86, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32934,7 +32934,7 @@
         </is>
       </c>
       <c r="K87">
-        <f>TODAY()-C87</f>
+        <f>DATEDIF(C87, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -32984,7 +32984,7 @@
         </is>
       </c>
       <c r="K88">
-        <f>TODAY()-C88</f>
+        <f>DATEDIF(C88, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33034,7 +33034,7 @@
         </is>
       </c>
       <c r="K89">
-        <f>TODAY()-C89</f>
+        <f>DATEDIF(C89, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33084,7 +33084,7 @@
         </is>
       </c>
       <c r="K90">
-        <f>TODAY()-C90</f>
+        <f>DATEDIF(C90, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33134,7 +33134,7 @@
         </is>
       </c>
       <c r="K91">
-        <f>TODAY()-C91</f>
+        <f>DATEDIF(C91, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33184,7 +33184,7 @@
         </is>
       </c>
       <c r="K92">
-        <f>TODAY()-C92</f>
+        <f>DATEDIF(C92, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33234,7 +33234,7 @@
         </is>
       </c>
       <c r="K93">
-        <f>TODAY()-C93</f>
+        <f>DATEDIF(C93, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33284,7 +33284,7 @@
         </is>
       </c>
       <c r="K94">
-        <f>TODAY()-C94</f>
+        <f>DATEDIF(C94, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33334,7 +33334,7 @@
         </is>
       </c>
       <c r="K95">
-        <f>TODAY()-C95</f>
+        <f>DATEDIF(C95, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33384,7 +33384,7 @@
         </is>
       </c>
       <c r="K96">
-        <f>TODAY()-C96</f>
+        <f>DATEDIF(C96, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33434,7 +33434,7 @@
         </is>
       </c>
       <c r="K97">
-        <f>TODAY()-C97</f>
+        <f>DATEDIF(C97, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33484,7 +33484,7 @@
         </is>
       </c>
       <c r="K98">
-        <f>TODAY()-C98</f>
+        <f>DATEDIF(C98, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33529,7 +33529,7 @@
         </is>
       </c>
       <c r="K99">
-        <f>TODAY()-C99</f>
+        <f>DATEDIF(C99, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33574,7 +33574,7 @@
         </is>
       </c>
       <c r="K100">
-        <f>TODAY()-C100</f>
+        <f>DATEDIF(C100, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33619,7 +33619,7 @@
         </is>
       </c>
       <c r="K101">
-        <f>TODAY()-C101</f>
+        <f>DATEDIF(C101, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33664,7 +33664,7 @@
         </is>
       </c>
       <c r="K102">
-        <f>TODAY()-C102</f>
+        <f>DATEDIF(C102, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33714,7 +33714,7 @@
         </is>
       </c>
       <c r="K103">
-        <f>TODAY()-C103</f>
+        <f>DATEDIF(C103, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33764,7 +33764,7 @@
         </is>
       </c>
       <c r="K104">
-        <f>TODAY()-C104</f>
+        <f>DATEDIF(C104, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33814,7 +33814,7 @@
         </is>
       </c>
       <c r="K105">
-        <f>TODAY()-C105</f>
+        <f>DATEDIF(C105, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33864,7 +33864,7 @@
         </is>
       </c>
       <c r="K106">
-        <f>TODAY()-C106</f>
+        <f>DATEDIF(C106, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33914,7 +33914,7 @@
         </is>
       </c>
       <c r="K107">
-        <f>TODAY()-C107</f>
+        <f>DATEDIF(C107, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -33964,7 +33964,7 @@
         </is>
       </c>
       <c r="K108">
-        <f>TODAY()-C108</f>
+        <f>DATEDIF(C108, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34014,7 +34014,7 @@
         </is>
       </c>
       <c r="K109">
-        <f>TODAY()-C109</f>
+        <f>DATEDIF(C109, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34064,7 +34064,7 @@
         </is>
       </c>
       <c r="K110">
-        <f>TODAY()-C110</f>
+        <f>DATEDIF(C110, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34114,7 +34114,7 @@
         </is>
       </c>
       <c r="K111">
-        <f>TODAY()-C111</f>
+        <f>DATEDIF(C111, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34164,7 +34164,7 @@
         </is>
       </c>
       <c r="K112">
-        <f>TODAY()-C112</f>
+        <f>DATEDIF(C112, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34214,7 +34214,7 @@
         </is>
       </c>
       <c r="K113">
-        <f>TODAY()-C113</f>
+        <f>DATEDIF(C113, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34264,7 +34264,7 @@
         </is>
       </c>
       <c r="K114">
-        <f>TODAY()-C114</f>
+        <f>DATEDIF(C114, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34314,7 +34314,7 @@
         </is>
       </c>
       <c r="K115">
-        <f>TODAY()-C115</f>
+        <f>DATEDIF(C115, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34359,7 +34359,7 @@
         </is>
       </c>
       <c r="K116">
-        <f>TODAY()-C116</f>
+        <f>DATEDIF(C116, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34404,7 +34404,7 @@
         </is>
       </c>
       <c r="K117">
-        <f>TODAY()-C117</f>
+        <f>DATEDIF(C117, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34449,7 +34449,7 @@
         </is>
       </c>
       <c r="K118">
-        <f>TODAY()-C118</f>
+        <f>DATEDIF(C118, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34499,7 +34499,7 @@
         </is>
       </c>
       <c r="K119">
-        <f>TODAY()-C119</f>
+        <f>DATEDIF(C119, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34549,7 +34549,7 @@
         </is>
       </c>
       <c r="K120">
-        <f>TODAY()-C120</f>
+        <f>DATEDIF(C120, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34599,7 +34599,7 @@
         </is>
       </c>
       <c r="K121">
-        <f>TODAY()-C121</f>
+        <f>DATEDIF(C121, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34649,7 +34649,7 @@
         </is>
       </c>
       <c r="K122">
-        <f>TODAY()-C122</f>
+        <f>DATEDIF(C122, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34699,7 +34699,7 @@
         </is>
       </c>
       <c r="K123">
-        <f>TODAY()-C123</f>
+        <f>DATEDIF(C123, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="K124">
-        <f>TODAY()-C124</f>
+        <f>DATEDIF(C124, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34799,7 +34799,7 @@
         </is>
       </c>
       <c r="K125">
-        <f>TODAY()-C125</f>
+        <f>DATEDIF(C125, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34844,7 +34844,7 @@
         </is>
       </c>
       <c r="K126">
-        <f>TODAY()-C126</f>
+        <f>DATEDIF(C126, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34894,7 +34894,7 @@
         </is>
       </c>
       <c r="K127">
-        <f>TODAY()-C127</f>
+        <f>DATEDIF(C127, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34944,7 +34944,7 @@
         </is>
       </c>
       <c r="K128">
-        <f>TODAY()-C128</f>
+        <f>DATEDIF(C128, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -34994,7 +34994,7 @@
         </is>
       </c>
       <c r="K129">
-        <f>TODAY()-C129</f>
+        <f>DATEDIF(C129, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35044,7 +35044,7 @@
         </is>
       </c>
       <c r="K130">
-        <f>TODAY()-C130</f>
+        <f>DATEDIF(C130, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35094,7 +35094,7 @@
         </is>
       </c>
       <c r="K131">
-        <f>TODAY()-C131</f>
+        <f>DATEDIF(C131, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35144,7 +35144,7 @@
         </is>
       </c>
       <c r="K132">
-        <f>TODAY()-C132</f>
+        <f>DATEDIF(C132, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35189,7 +35189,7 @@
         </is>
       </c>
       <c r="K133">
-        <f>TODAY()-C133</f>
+        <f>DATEDIF(C133, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35239,7 +35239,7 @@
         </is>
       </c>
       <c r="K134">
-        <f>TODAY()-C134</f>
+        <f>DATEDIF(C134, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35289,7 +35289,7 @@
         </is>
       </c>
       <c r="K135">
-        <f>TODAY()-C135</f>
+        <f>DATEDIF(C135, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35442,7 +35442,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35590,7 +35590,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35635,7 +35635,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35680,7 +35680,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35725,7 +35725,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35770,7 +35770,7 @@
         </is>
       </c>
       <c r="K6">
-        <f>TODAY()-C6</f>
+        <f>DATEDIF(C6, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35815,7 +35815,7 @@
         </is>
       </c>
       <c r="K7">
-        <f>TODAY()-C7</f>
+        <f>DATEDIF(C7, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35860,7 +35860,7 @@
         </is>
       </c>
       <c r="K8">
-        <f>TODAY()-C8</f>
+        <f>DATEDIF(C8, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35910,7 +35910,7 @@
         </is>
       </c>
       <c r="K9">
-        <f>TODAY()-C9</f>
+        <f>DATEDIF(C9, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -35960,7 +35960,7 @@
         </is>
       </c>
       <c r="K10">
-        <f>TODAY()-C10</f>
+        <f>DATEDIF(C10, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36010,7 +36010,7 @@
         </is>
       </c>
       <c r="K11">
-        <f>TODAY()-C11</f>
+        <f>DATEDIF(C11, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36055,7 +36055,7 @@
         </is>
       </c>
       <c r="K12">
-        <f>TODAY()-C12</f>
+        <f>DATEDIF(C12, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36100,7 +36100,7 @@
         </is>
       </c>
       <c r="K13">
-        <f>TODAY()-C13</f>
+        <f>DATEDIF(C13, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36145,7 +36145,7 @@
         </is>
       </c>
       <c r="K14">
-        <f>TODAY()-C14</f>
+        <f>DATEDIF(C14, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36190,7 +36190,7 @@
         </is>
       </c>
       <c r="K15">
-        <f>TODAY()-C15</f>
+        <f>DATEDIF(C15, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36240,7 +36240,7 @@
         </is>
       </c>
       <c r="K16">
-        <f>TODAY()-C16</f>
+        <f>DATEDIF(C16, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36290,7 +36290,7 @@
         </is>
       </c>
       <c r="K17">
-        <f>TODAY()-C17</f>
+        <f>DATEDIF(C17, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36340,7 +36340,7 @@
         </is>
       </c>
       <c r="K18">
-        <f>TODAY()-C18</f>
+        <f>DATEDIF(C18, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36390,7 +36390,7 @@
         </is>
       </c>
       <c r="K19">
-        <f>TODAY()-C19</f>
+        <f>DATEDIF(C19, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36435,7 +36435,7 @@
         </is>
       </c>
       <c r="K20">
-        <f>TODAY()-C20</f>
+        <f>DATEDIF(C20, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36480,7 +36480,7 @@
         </is>
       </c>
       <c r="K21">
-        <f>TODAY()-C21</f>
+        <f>DATEDIF(C21, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36530,7 +36530,7 @@
         </is>
       </c>
       <c r="K22">
-        <f>TODAY()-C22</f>
+        <f>DATEDIF(C22, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36580,7 +36580,7 @@
         </is>
       </c>
       <c r="K23">
-        <f>TODAY()-C23</f>
+        <f>DATEDIF(C23, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36625,7 +36625,7 @@
         </is>
       </c>
       <c r="K24">
-        <f>TODAY()-C24</f>
+        <f>DATEDIF(C24, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36675,7 +36675,7 @@
         </is>
       </c>
       <c r="K25">
-        <f>TODAY()-C25</f>
+        <f>DATEDIF(C25, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36720,7 +36720,7 @@
         </is>
       </c>
       <c r="K26">
-        <f>TODAY()-C26</f>
+        <f>DATEDIF(C26, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36770,7 +36770,7 @@
         </is>
       </c>
       <c r="K27">
-        <f>TODAY()-C27</f>
+        <f>DATEDIF(C27, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36815,7 +36815,7 @@
         </is>
       </c>
       <c r="K28">
-        <f>TODAY()-C28</f>
+        <f>DATEDIF(C28, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36860,7 +36860,7 @@
         </is>
       </c>
       <c r="K29">
-        <f>TODAY()-C29</f>
+        <f>DATEDIF(C29, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36910,7 +36910,7 @@
         </is>
       </c>
       <c r="K30">
-        <f>TODAY()-C30</f>
+        <f>DATEDIF(C30, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="K31">
-        <f>TODAY()-C31</f>
+        <f>DATEDIF(C31, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -37005,7 +37005,7 @@
         </is>
       </c>
       <c r="K32">
-        <f>TODAY()-C32</f>
+        <f>DATEDIF(C32, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -37055,7 +37055,7 @@
         </is>
       </c>
       <c r="K33">
-        <f>TODAY()-C33</f>
+        <f>DATEDIF(C33, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -37105,7 +37105,7 @@
         </is>
       </c>
       <c r="K34">
-        <f>TODAY()-C34</f>
+        <f>DATEDIF(C34, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -37155,7 +37155,7 @@
         </is>
       </c>
       <c r="K35">
-        <f>TODAY()-C35</f>
+        <f>DATEDIF(C35, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -37205,7 +37205,7 @@
         </is>
       </c>
       <c r="K36">
-        <f>TODAY()-C36</f>
+        <f>DATEDIF(C36, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -37250,7 +37250,7 @@
         </is>
       </c>
       <c r="K37">
-        <f>TODAY()-C37</f>
+        <f>DATEDIF(C37, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -37403,7 +37403,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -37453,7 +37453,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -37503,7 +37503,7 @@
         </is>
       </c>
       <c r="K4">
-        <f>TODAY()-C4</f>
+        <f>DATEDIF(C4, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -37553,7 +37553,7 @@
         </is>
       </c>
       <c r="K5">
-        <f>TODAY()-C5</f>
+        <f>DATEDIF(C5, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -37706,7 +37706,7 @@
         </is>
       </c>
       <c r="K2">
-        <f>TODAY()-C2</f>
+        <f>DATEDIF(C2, TODAY(), "d")</f>
         <v/>
       </c>
     </row>
@@ -37756,7 +37756,7 @@
         </is>
       </c>
       <c r="K3">
-        <f>TODAY()-C3</f>
+        <f>DATEDIF(C3, TODAY(), "d")</f>
         <v/>
       </c>
     </row>

--- a/files/Final_Report.xlsx
+++ b/files/Final_Report.xlsx
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,11 +475,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,9 +487,6 @@
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="B2" t="inlineStr">
@@ -505,30 +499,15 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Comapany</t>
+          <t>Account</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Account</t>
+          <t>Amount in doc. curr.</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Document currency</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Local Currency</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>Amount in doc. curr.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>Amount in local currency</t>
         </is>
@@ -537,1014 +516,266 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UN0100</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>63010001</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>-928860.36</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-928860.36</v>
+      <c r="B5" t="n">
+        <v>-6850603.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6850603.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UN0100</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>63010002</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>2901287.44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2901287.44</v>
+      <c r="B6" t="n">
+        <v>11501418.04</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11501418.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UN0100</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>63010011</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>-74328000</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-399162.23</v>
+      <c r="B7" t="n">
+        <v>-1479775595.78</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-7946810.529999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UN0100</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>63010012</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>81272821.92</v>
-      </c>
-      <c r="F8" t="n">
-        <v>436431.34</v>
+      <c r="B8" t="n">
+        <v>1495088917.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8028294.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UN0100</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>63010162</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1354247.56</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1354247.56</v>
+          <t>63010061</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1800000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-232183.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UN0100</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>63010502</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>331478.78</v>
-      </c>
-      <c r="F10" t="n">
-        <v>331478.78</v>
+          <t>63010101</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-41779.00999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-46504.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UN0100</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>63020002</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>94556</v>
-      </c>
-      <c r="F11" t="n">
-        <v>507.8</v>
+          <t>63010162</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1354247.56</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1354247.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UN0100</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>63020602</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>1058446.5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5684.16</v>
+          <t>63010502</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1368805.95</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1368805.95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UN0150</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>63010001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>-2045692.79</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-2045692.79</v>
+          <t>63011001</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-506397.46</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-506397.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UN0150</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>63010002</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1802038.29</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1802038.29</v>
+          <t>63011011</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-181229989.54</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-973255.86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UN0150</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>63010011</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>-561689679.62</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-3016431.32</v>
+          <t>63020001</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-3354998.88</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-18017.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UN0150</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>63010012</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>570058629.62</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3060934.53</v>
+          <t>63020002</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3533034.32</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18973.41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UN0150</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>63010502</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1037327.17</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1037327.17</v>
+          <t>63020051</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-29242804.73</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-157042.07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UN0150</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>63020001</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>-1331372</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-7149.85</v>
+          <t>63020602</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13969885.84</v>
+      </c>
+      <c r="C18" t="n">
+        <v>75022.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UN0150</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>63020002</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>1331372</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7149.849999999999</v>
+          <t>63020621</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4375</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-4375</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UN0150</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>63020602</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>12911439.34</v>
-      </c>
-      <c r="F20" t="n">
-        <v>69338.06</v>
+          <t>63070001</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-2532414</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2532414</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UN0150</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>63020621</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>-4375</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-4375</v>
+          <t>63070002</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2853277.16</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2853277.16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UN0150</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>63070012</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
+      <c r="B22" t="n">
         <v>250851.46</v>
       </c>
-      <c r="F22" t="n">
+      <c r="C22" t="n">
         <v>250851.46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UN0150</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>63070501</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
+      <c r="B23" t="n">
         <v>-301238357.4</v>
       </c>
-      <c r="F23" t="n">
+      <c r="C23" t="n">
         <v>-1617734.58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UN0150</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>63070502</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+      <c r="B24" t="n">
         <v>398347604.24</v>
       </c>
-      <c r="F24" t="n">
+      <c r="C24" t="n">
         <v>2139238.51</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>UN0151</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>63020001</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>127435</v>
-      </c>
-      <c r="F25" t="n">
-        <v>684.37</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>UN0151</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>63020002</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>-1218841</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-6545.51</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>63010001</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>-3876050.65</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-3876050.65</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>63010002</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>6798092.310000001</v>
-      </c>
-      <c r="F28" t="n">
-        <v>6798092.310000001</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>63010011</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>-843757916.16</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-4531216.98</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>63010012</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>843757466.16</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4530928.92</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>63010061</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>-1800000</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-232183.17</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>63010101</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>-41779.00999999999</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-46504.21</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>63011001</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>-506397.46</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-506397.46</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>63011011</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>-181229989.54</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-973255.86</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>63020001</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>-2153646.88</v>
-      </c>
-      <c r="F35" t="n">
-        <v>-11565.67</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>63020002</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>3325947.32</v>
-      </c>
-      <c r="F36" t="n">
-        <v>17861.27</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>63020051</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>-29242804.73</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-157042.07</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>63070001</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>-2532414</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-2532414</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>XT0150</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>63070002</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>2853277.16</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2853277.16</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>XT0151</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>63020001</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>2585</v>
-      </c>
-      <c r="F40" t="n">
-        <v>13.85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/Final_Report.xlsx
+++ b/files/Final_Report.xlsx
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,8 +475,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -487,11 +490,14 @@
       </c>
       <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -499,15 +505,30 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>Comapany</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
           <t>Account</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Document currency</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>Amount in doc. curr.</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Local Currency</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>Amount in local currency</t>
         </is>
@@ -516,266 +537,566 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>UN0100</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>63010001</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>-6850603.8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>-6850603.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>63010002</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>11501418.04</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>11501418.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>63010011</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>-1479775595.78</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>-7946810.529999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>UN0150</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>63010012</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1495088917.7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
         <v>8028294.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>63010061</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>-1800000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
         <v>-232183.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>63010101</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>-41779.00999999999</v>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>-46504.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>UN0100</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>63010162</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>1354247.56</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>1354247.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>UN0150</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>63010502</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1368805.95</v>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>1368805.95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>63011001</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>-506397.46</v>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>-506397.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>63011011</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>-181229989.54</v>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>-973255.86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>XT0151</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>63020001</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>-3354998.88</v>
       </c>
-      <c r="C15" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>-18017.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>63020002</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>3533034.32</v>
       </c>
-      <c r="C16" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
         <v>18973.41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>63020051</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>-29242804.73</v>
       </c>
-      <c r="C17" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
         <v>-157042.07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>UN0100</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>63020602</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>13969885.84</v>
       </c>
-      <c r="C18" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
         <v>75022.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>UN0150</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>63020621</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>-4375</v>
       </c>
-      <c r="C19" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
         <v>-4375</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>63070001</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>-2532414</v>
       </c>
-      <c r="C20" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
         <v>-2532414</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>XT0150</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>63070002</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>2853277.16</v>
       </c>
-      <c r="C21" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
         <v>2853277.16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>UN0150</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>63070012</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>250851.46</v>
       </c>
-      <c r="C22" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
         <v>250851.46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>UN0150</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>63070501</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>-301238357.4</v>
       </c>
-      <c r="C23" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
         <v>-1617734.58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>UN0150</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>63070502</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>398347604.24</v>
       </c>
-      <c r="C24" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
         <v>2139238.51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
